--- a/data/misc/fuelTypes.xlsx
+++ b/data/misc/fuelTypes.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>fuelType</t>
+    <t>fuel_type</t>
   </si>
   <si>
     <t>regular</t>
